--- a/xlsx/雅虎_intext.xlsx
+++ b/xlsx/雅虎_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
   <si>
     <t>雅虎</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Oath公司</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_雅虎</t>
+    <t>政策_政策_维基百科_雅虎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E8%87%B4%E8%BF%9C</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E8%B2%BB%E7%BE%85</t>
   </si>
   <si>
-    <t>大衛·費羅</t>
+    <t>大卫·费罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%8F%A3%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>入口網站</t>
+    <t>入口网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E4%BF%A1%E7%AE%B1</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>體育</t>
+    <t>体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -149,31 +149,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E8%87%B4%E9%81%A0</t>
   </si>
   <si>
-    <t>楊致遠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>資料庫</t>
+    <t>资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%88%97%E4%BD%9B%E9%81%8A%E8%A8%98</t>
   </si>
   <si>
-    <t>格列佛遊記</t>
+    <t>格列佛游记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E6%AC%A1%E5%85%AC%E9%96%8B%E5%8B%9F%E8%82%A1</t>
   </si>
   <si>
-    <t>首次公開募股</t>
+    <t>首次公开募股</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/EBSCO_Industries</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%89%E6%9B%B8</t>
   </si>
   <si>
-    <t>臉書</t>
+    <t>脸书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%99%8E%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>雅虎台灣</t>
+    <t>雅虎台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E6%91%A9%E7%AB%99</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%90%8D%E5%B0%8F%E7%AB%99</t>
   </si>
   <si>
-    <t>無名小站</t>
+    <t>无名小站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Yahoo!_Axis</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>行動瀏覽器</t>
+    <t>行动浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>網頁瀏覽器</t>
+    <t>网页浏览器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Browser_extension</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%C2%B7%E9%81%94%E6%B4%9B%E4%BC%8A%E8%A5%BF%E5%A5%A7</t>
   </si>
   <si>
-    <t>尼克·達洛伊西奧</t>
+    <t>尼克·达洛伊西奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Tumblr</t>
@@ -335,19 +332,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%9C%E9%8F%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>稜鏡計畫</t>
+    <t>稜镜计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國證券交易委員會</t>
+    <t>美国证券交易委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Yahoo!%E7%9F%A5%E8%AD%98%2B</t>
   </si>
   <si>
-    <t>Yahoo!知識+</t>
+    <t>Yahoo!知识+</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Yahoo!%E5%B7%A5%E5%85%B7%E5%88%97</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>維基媒體</t>
+    <t>维基媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
@@ -383,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%AD%E5%AE%A2</t>
   </si>
   <si>
-    <t>駭客</t>
+    <t>骇客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%9E%E6%A3%AE%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>威瑞森通訊</t>
+    <t>威瑞森通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%94%A8%E5%8D%A1</t>
@@ -401,19 +398,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>地區</t>
+    <t>地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E8%A6%8B%E4%BA%BA%E5%A3%AB</t>
   </si>
   <si>
-    <t>異見人士</t>
+    <t>异见人士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%B0%8F%E5%AE%81</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%88%E6%B6%9B</t>
@@ -437,31 +434,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>中華人民共和國國家安全部</t>
+    <t>中华人民共和国国家安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AB%E6%BF%A4</t>
   </si>
   <si>
-    <t>師濤</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%BC%98%E9%81%94</t>
   </si>
   <si>
-    <t>吳弘達</t>
+    <t>吴弘达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B7%9A%E4%B8%8A</t>
   </si>
   <si>
-    <t>美國線上</t>
+    <t>美国线上</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google</t>
@@ -479,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/Yahoo!%E6%90%9C%E5%B0%8B</t>
   </si>
   <si>
-    <t>Yahoo!搜尋</t>
+    <t>Yahoo!搜寻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Yahoo!%E6%8B%8D%E8%B3%A3</t>
   </si>
   <si>
-    <t>Yahoo!拍賣</t>
+    <t>Yahoo!拍卖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E9%91%BC%E7%81%A3</t>
   </si>
   <si>
-    <t>銅鑼灣</t>
+    <t>铜锣湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%9C%92%E5%B1%B1</t>
   </si>
   <si>
-    <t>利園山</t>
+    <t>利园山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%B9%B3%E9%81%93</t>
@@ -509,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E8%98%AD%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>嘉蘭中心</t>
+    <t>嘉兰中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%AA%A0%E8%B3%87%E8%A8%8A</t>
   </si>
   <si>
-    <t>精誠資訊</t>
+    <t>精诚资讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%99%8E%E5%8F%A3%E7%A2%91%E7%BD%91</t>
@@ -527,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%99%8E%E6%90%9C%E5%B0%8B%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>雅虎搜尋行銷</t>
+    <t>雅虎搜寻行销</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -623,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_mergers_and_acquisitions_by_Yahoo!</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%BA%97%E8%8E%8E%C2%B7%E6%A2%85%E7%88%BE</t>
   </si>
   <si>
-    <t>梅麗莎·梅爾</t>
+    <t>梅丽莎·梅尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E5%88%97%E5%A4%AB%E7%90%B4</t>
@@ -653,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>孫正義</t>
+    <t>孙正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/PChome_Online%E7%B6%B2%E8%B7%AF%E5%AE%B6%E5%BA%AD</t>
   </si>
   <si>
-    <t>PChome Online網路家庭</t>
+    <t>PChome Online网路家庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Yam</t>
@@ -1302,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -1705,7 +1699,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -1731,10 +1725,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1760,10 +1754,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>7</v>
@@ -1789,10 +1783,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1818,10 +1812,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1847,10 +1841,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1876,10 +1870,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1905,10 +1899,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1934,10 +1928,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1963,10 +1957,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1992,10 +1986,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2021,10 +2015,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2050,10 +2044,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2079,10 +2073,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2108,10 +2102,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2137,10 +2131,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2166,10 +2160,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -2195,10 +2189,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -2224,10 +2218,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>12</v>
@@ -2253,10 +2247,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2282,10 +2276,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2311,10 +2305,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2340,10 +2334,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2369,10 +2363,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2398,10 +2392,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2427,10 +2421,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2456,10 +2450,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2485,10 +2479,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -2514,10 +2508,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -2543,10 +2537,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>5</v>
@@ -2572,10 +2566,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>18</v>
@@ -2601,10 +2595,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2630,10 +2624,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2659,10 +2653,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2688,10 +2682,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" t="s">
         <v>63</v>
-      </c>
-      <c r="F56" t="s">
-        <v>64</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2717,10 +2711,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" t="s">
         <v>67</v>
-      </c>
-      <c r="F57" t="s">
-        <v>68</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2746,10 +2740,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2775,10 +2769,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2804,10 +2798,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2833,10 +2827,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2862,10 +2856,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -2891,10 +2885,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -2920,10 +2914,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2949,10 +2943,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2978,10 +2972,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3007,10 +3001,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -3036,10 +3030,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3065,10 +3059,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3094,10 +3088,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3123,10 +3117,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3152,10 +3146,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3181,10 +3175,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3210,10 +3204,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3239,10 +3233,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3268,10 +3262,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3297,10 +3291,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
@@ -3326,10 +3320,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>9</v>
@@ -3355,10 +3349,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>12</v>
@@ -3384,10 +3378,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" t="s">
         <v>63</v>
-      </c>
-      <c r="F80" t="s">
-        <v>64</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3413,13 +3407,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" t="s">
         <v>109</v>
       </c>
-      <c r="F81" t="s">
-        <v>110</v>
-      </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -3442,10 +3436,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3471,10 +3465,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3500,10 +3494,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3529,10 +3523,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3558,10 +3552,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3587,10 +3581,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3616,10 +3610,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3645,10 +3639,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3674,10 +3668,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3732,10 +3726,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3761,10 +3755,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3790,10 +3784,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3819,10 +3813,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3848,10 +3842,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3877,10 +3871,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -3906,10 +3900,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3935,10 +3929,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3964,10 +3958,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3993,10 +3987,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4022,10 +4016,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4051,10 +4045,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" t="s">
         <v>109</v>
-      </c>
-      <c r="F103" t="s">
-        <v>110</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4080,10 +4074,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4109,10 +4103,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4138,10 +4132,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4167,10 +4161,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4196,10 +4190,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>6</v>
@@ -4225,10 +4219,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
         <v>4</v>
@@ -4254,10 +4248,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4283,10 +4277,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4341,10 +4335,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4370,10 +4364,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4399,10 +4393,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4428,10 +4422,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F116" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4457,10 +4451,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F117" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -4486,10 +4480,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F118" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4515,10 +4509,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4544,10 +4538,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4573,10 +4567,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4602,10 +4596,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F122" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4631,10 +4625,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4660,10 +4654,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4689,10 +4683,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4718,10 +4712,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F126" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4747,10 +4741,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>78</v>
+      </c>
+      <c r="F127" t="s">
         <v>79</v>
-      </c>
-      <c r="F127" t="s">
-        <v>80</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4776,10 +4770,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4805,10 +4799,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4834,10 +4828,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G130" t="n">
         <v>14</v>
